--- a/stock_historical_data/3mo/TATATECH.NS.xlsx
+++ b/stock_historical_data/3mo/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,113 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1136</v>
+      </c>
+      <c r="D5" t="n">
+        <v>970.0999755859375</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1006.299987792969</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>166339025</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>31</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1038</v>
+      </c>
+      <c r="D6" t="n">
+        <v>883.2999877929688</v>
+      </c>
+      <c r="E6" t="n">
+        <v>891.3499755859375</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>29260869</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>44</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
